--- a/Question_Set2/Programming skills/Redis.xlsx
+++ b/Question_Set2/Programming skills/Redis.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You’re responsible for maintaining a Redis server with multiple clients connected to it. You notice that the server's performance has degraded over time, and you suspect it is due to the server running out of memory.Which command should you use to check the current memory usage of your Redis server?", 'ques_type': 2, 'options': ['INFO MEMORY', 'MEMORY USAGE', 'USAGE MEMORY', 'MEMORY INFO'], 'score': 'INFO MEMORY'}, {'title': "You’re a database administrator and need to improve the security of your organization's Redis server. You must enforce password authentication for clients connecting to the server.Which configuration directive should you modify to set a password for client authentication?", 'ques_type': 2, 'options': ['rename-command', 'protected-mode', 'requirepass', 'bind'], 'score': 'requirepass'}, {'title': 'You are a software developer implementing caching mechanisms in your application using Redis. Your team has decided to use the RedisGraph module to store graph data structures for better performance.How do you create a node with the label “Person” and properties “name” and “age” in RedisGraph?', 'ques_type': 2, 'options': ['GRAPH.CREATE myGraph "CREATE (n:Person {name: \'John\', age: 30})"', 'GRAPH.ADDNODE myGraph "CREATE (n:Person {name: \'John\', age: 30})"', 'GRAPH.NODE myGraph "CREATE (n:Person {name: \'John\', age: 30})"', 'GRAPH.QUERY myGraph "CREATE (n:Person {name: \'John\', age: 30})"'], 'score': 'GRAPH.QUERY myGraph "CREATE (n:Person {name: \'John\', age: 30})"'}, {'title': 'You are a software developer working on an application that uses Redis Lua scripting extensively. To improve performance, you want to cache your scripts on the server using the SCRIPT LOAD command.How do you execute a cached script using its SHA1 digest?', 'ques_type': 2, 'options': ['SCRIPT EXEC [ ...]', 'SCRIPT RUN [ ...]', 'EVAL [ ...]', 'EVALSHA [ ...]'], 'score': 'EVALSHA [ ...]'}]</t>
+    <t>questions = [
+    {
+        "title": "You\u2019re responsible for maintaining a Redis server with multiple clients connected to it. You notice that the server's performance has degraded over time, and you suspect it is due to the server running out of memory.Which command should you use to check the current memory usage of your Redis server?",
+        "ques_type": 2,
+        "options": [
+            "INFO MEMORY",
+            "MEMORY USAGE",
+            "USAGE MEMORY",
+            "MEMORY INFO"
+        ],
+        "score": "INFO MEMORY"
+    },
+    {
+        "title": "You\u2019re a database administrator and need to improve the security of your organization's Redis server. You must enforce password authentication for clients connecting to the server.Which configuration directive should you modify to set a password for client authentication?",
+        "ques_type": 2,
+        "options": [
+            "rename-command",
+            "protected-mode",
+            "requirepass",
+            "bind"
+        ],
+        "score": "requirepass"
+    },
+    {
+        "title": "You are a software developer implementing caching mechanisms in your application using Redis. Your team has decided to use the RedisGraph module to store graph data structures for better performance.How do you create a node with the label \u201cPerson\u201d and properties \u201cname\u201d and \u201cage\u201d in RedisGraph?",
+        "ques_type": 2,
+        "options": [
+            "GRAPH.CREATE myGraph \"CREATE (n:Person {name: 'John', age: 30})\"",
+            "GRAPH.ADDNODE myGraph \"CREATE (n:Person {name: 'John', age: 30})\"",
+            "GRAPH.NODE myGraph \"CREATE (n:Person {name: 'John', age: 30})\"",
+            "GRAPH.QUERY myGraph \"CREATE (n:Person {name: 'John', age: 30})\""
+        ],
+        "score": "GRAPH.QUERY myGraph \"CREATE (n:Person {name: 'John', age: 30})\""
+    },
+    {
+        "title": "You are a software developer working on an application that uses Redis Lua scripting extensively. To improve performance, you want to cache your scripts on the server using the SCRIPT LOAD command.How do you execute a cached script using its SHA1 digest?",
+        "ques_type": 2,
+        "options": [
+            "SCRIPT EXEC [ ...]",
+            "SCRIPT RUN [ ...]",
+            "EVAL [ ...]",
+            "EVALSHA [ ...]"
+        ],
+        "score": "EVALSHA [ ...]"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
